--- a/Src/Data/Tables/NPCDefine.xlsx
+++ b/Src/Data/Tables/NPCDefine.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="27">
   <si>
     <t>描述</t>
   </si>
@@ -86,6 +86,12 @@
   </si>
   <si>
     <t>Equipment Dealer</t>
+  </si>
+  <si>
+    <t>Andy</t>
+  </si>
+  <si>
+    <t>Ride Dealer</t>
   </si>
 </sst>
 </file>
@@ -740,13 +746,27 @@
       <c r="Z7" s="1"/>
     </row>
     <row r="8">
-      <c r="A8" s="7"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
+      <c r="A8" s="8">
+        <v>5.0</v>
+      </c>
+      <c r="B8" s="8">
+        <v>5.0</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" s="9">
+        <v>3.0</v>
+      </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>

--- a/Src/Data/Tables/NPCDefine.xlsx
+++ b/Src/Data/Tables/NPCDefine.xlsx
@@ -1,12 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mxt62\OneDrive\Documents\GitHub\Fantasy-World\Src\Data\Tables\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5825B37-2DB5-4052-B2C9-B6918B67DDDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Elements" sheetId="1" r:id="rId4"/>
+    <sheet name="Elements" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -97,39 +106,52 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <fonts count="7">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="9.0"/>
+      <sz val="9"/>
       <color theme="1"/>
       <name val="Microsoft Yahei"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
-      <sz val="9.0"/>
+      <sz val="9"/>
       <color theme="0"/>
       <name val="Microsoft Yahei"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
-      <sz val="9.0"/>
+      <sz val="9"/>
       <color rgb="FFFFFFFF"/>
       <name val="Microsoft Yahei"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
-      <sz val="9.0"/>
+      <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="&quot;Microsoft Yahei&quot;"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="3">
@@ -137,7 +159,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -147,113 +169,118 @@
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="3">
     <dxf>
-      <font/>
       <fill>
-        <patternFill patternType="none"/>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFDBE5F1"/>
+          <bgColor rgb="FFDBE5F1"/>
+        </patternFill>
       </fill>
-      <border/>
     </dxf>
     <dxf>
-      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFDBE5F1"/>
+          <bgColor rgb="FFDBE5F1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor theme="4"/>
           <bgColor theme="4"/>
         </patternFill>
       </fill>
-      <border/>
-    </dxf>
-    <dxf>
-      <font/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFDBE5F1"/>
-          <bgColor rgb="FFDBE5F1"/>
-        </patternFill>
-      </fill>
-      <border/>
     </dxf>
   </dxfs>
   <tableStyles count="1">
-    <tableStyle count="3" pivot="0" name="Elements-style">
-      <tableStyleElement dxfId="1" type="headerRow"/>
-      <tableStyleElement dxfId="2" type="firstRowStripe"/>
-      <tableStyleElement dxfId="2" type="secondRowStripe"/>
+    <tableStyle name="Elements-style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+      <tableStyleElement type="headerRow" dxfId="2"/>
+      <tableStyleElement type="firstRowStripe" dxfId="1"/>
+      <tableStyleElement type="secondRowStripe" dxfId="0"/>
     </tableStyle>
   </tableStyles>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A3:G11" displayName="Table_1" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_1" displayName="Table_1" ref="A3:G11">
   <tableColumns count="7">
-    <tableColumn name="Key" id="1"/>
-    <tableColumn name="ID" id="2"/>
-    <tableColumn name="Name" id="3"/>
-    <tableColumn name="Description" id="4"/>
-    <tableColumn name="Type" id="5"/>
-    <tableColumn name="Function" id="6"/>
-    <tableColumn name="Param" id="7"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Key"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="ID"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Name"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Description"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Type"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Function"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Param"/>
   </tableColumns>
-  <tableStyleInfo name="Elements-style" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
+  <tableStyleInfo name="Elements-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -443,29 +470,31 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.41796875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="2" width="11.0"/>
-    <col customWidth="1" min="3" max="3" width="14.0"/>
-    <col customWidth="1" min="4" max="4" width="22.29"/>
-    <col customWidth="1" min="5" max="5" width="14.43"/>
-    <col customWidth="1" min="6" max="6" width="31.71"/>
-    <col customWidth="1" min="7" max="7" width="19.0"/>
-    <col customWidth="1" min="8" max="26" width="16.29"/>
+    <col min="1" max="2" width="11" customWidth="1"/>
+    <col min="3" max="3" width="14" customWidth="1"/>
+    <col min="4" max="4" width="22.26171875" customWidth="1"/>
+    <col min="5" max="5" width="14.41796875" customWidth="1"/>
+    <col min="6" max="6" width="31.68359375" customWidth="1"/>
+    <col min="7" max="7" width="19" customWidth="1"/>
+    <col min="8" max="26" width="16.26171875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:26" ht="14.4">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -501,7 +530,7 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2">
+    <row r="2" spans="1:26" ht="14.4">
       <c r="A2" s="3"/>
       <c r="B2" s="3" t="s">
         <v>4</v>
@@ -541,7 +570,7 @@
       <c r="Y2" s="1"/>
       <c r="Z2" s="1"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:26" ht="14.4">
       <c r="A3" s="5" t="s">
         <v>6</v>
       </c>
@@ -583,12 +612,12 @@
       <c r="Y3" s="1"/>
       <c r="Z3" s="1"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:26" ht="14.4">
       <c r="A4" s="7">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B4" s="7">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>13</v>
@@ -621,12 +650,12 @@
       <c r="Y4" s="1"/>
       <c r="Z4" s="1"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:26" ht="14.4">
       <c r="A5" s="7">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B5" s="7">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>16</v>
@@ -641,7 +670,7 @@
         <v>19</v>
       </c>
       <c r="G5" s="8">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
@@ -663,12 +692,12 @@
       <c r="Y5" s="1"/>
       <c r="Z5" s="1"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:26" ht="14.4">
       <c r="A6" s="7">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B6" s="7">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>20</v>
@@ -682,7 +711,9 @@
       <c r="F6" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="G6" s="11"/>
+      <c r="G6" s="11">
+        <v>1</v>
+      </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
@@ -703,12 +734,12 @@
       <c r="Y6" s="1"/>
       <c r="Z6" s="1"/>
     </row>
-    <row r="7">
+    <row r="7" spans="1:26" ht="14.4">
       <c r="A7" s="7">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B7" s="7">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>23</v>
@@ -723,7 +754,7 @@
         <v>19</v>
       </c>
       <c r="G7" s="9">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
@@ -745,12 +776,12 @@
       <c r="Y7" s="1"/>
       <c r="Z7" s="1"/>
     </row>
-    <row r="8">
+    <row r="8" spans="1:26" ht="14.4">
       <c r="A8" s="8">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B8" s="8">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>25</v>
@@ -765,7 +796,7 @@
         <v>19</v>
       </c>
       <c r="G8" s="9">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
@@ -787,7 +818,7 @@
       <c r="Y8" s="1"/>
       <c r="Z8" s="1"/>
     </row>
-    <row r="9">
+    <row r="9" spans="1:26" ht="14.4">
       <c r="A9" s="7"/>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
@@ -815,7 +846,7 @@
       <c r="Y9" s="1"/>
       <c r="Z9" s="1"/>
     </row>
-    <row r="10">
+    <row r="10" spans="1:26" ht="14.4">
       <c r="A10" s="7"/>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
@@ -843,7 +874,7 @@
       <c r="Y10" s="1"/>
       <c r="Z10" s="1"/>
     </row>
-    <row r="11">
+    <row r="11" spans="1:26" ht="14.4">
       <c r="A11" s="11"/>
       <c r="B11" s="11"/>
       <c r="C11" s="7"/>
@@ -871,7 +902,7 @@
       <c r="Y11" s="1"/>
       <c r="Z11" s="1"/>
     </row>
-    <row r="12">
+    <row r="12" spans="1:26" ht="14.4">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -898,7 +929,7 @@
       <c r="Y12" s="1"/>
       <c r="Z12" s="1"/>
     </row>
-    <row r="13">
+    <row r="13" spans="1:26" ht="14.4">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -925,7 +956,7 @@
       <c r="Y13" s="1"/>
       <c r="Z13" s="1"/>
     </row>
-    <row r="14">
+    <row r="14" spans="1:26" ht="14.4">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -952,7 +983,7 @@
       <c r="Y14" s="1"/>
       <c r="Z14" s="1"/>
     </row>
-    <row r="15">
+    <row r="15" spans="1:26" ht="14.4">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -979,7 +1010,7 @@
       <c r="Y15" s="1"/>
       <c r="Z15" s="1"/>
     </row>
-    <row r="16">
+    <row r="16" spans="1:26" ht="14.4">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -1006,7 +1037,7 @@
       <c r="Y16" s="1"/>
       <c r="Z16" s="1"/>
     </row>
-    <row r="17">
+    <row r="17" spans="1:26" ht="14.4">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -1033,7 +1064,7 @@
       <c r="Y17" s="1"/>
       <c r="Z17" s="1"/>
     </row>
-    <row r="18">
+    <row r="18" spans="1:26" ht="14.4">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -1060,7 +1091,7 @@
       <c r="Y18" s="1"/>
       <c r="Z18" s="1"/>
     </row>
-    <row r="19">
+    <row r="19" spans="1:26" ht="14.4">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -1087,7 +1118,7 @@
       <c r="Y19" s="1"/>
       <c r="Z19" s="1"/>
     </row>
-    <row r="20">
+    <row r="20" spans="1:26" ht="14.4">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -1114,7 +1145,7 @@
       <c r="Y20" s="1"/>
       <c r="Z20" s="1"/>
     </row>
-    <row r="21" ht="15.75" customHeight="1">
+    <row r="21" spans="1:26" ht="15.75" customHeight="1">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -1141,7 +1172,7 @@
       <c r="Y21" s="1"/>
       <c r="Z21" s="1"/>
     </row>
-    <row r="22" ht="15.75" customHeight="1">
+    <row r="22" spans="1:26" ht="15.75" customHeight="1">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -1168,7 +1199,7 @@
       <c r="Y22" s="1"/>
       <c r="Z22" s="1"/>
     </row>
-    <row r="23" ht="15.75" customHeight="1">
+    <row r="23" spans="1:26" ht="15.75" customHeight="1">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -1195,7 +1226,7 @@
       <c r="Y23" s="1"/>
       <c r="Z23" s="1"/>
     </row>
-    <row r="24" ht="15.75" customHeight="1">
+    <row r="24" spans="1:26" ht="15.75" customHeight="1">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -1222,7 +1253,7 @@
       <c r="Y24" s="1"/>
       <c r="Z24" s="1"/>
     </row>
-    <row r="25" ht="15.75" customHeight="1">
+    <row r="25" spans="1:26" ht="15.75" customHeight="1">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -1249,7 +1280,7 @@
       <c r="Y25" s="1"/>
       <c r="Z25" s="1"/>
     </row>
-    <row r="26" ht="15.75" customHeight="1">
+    <row r="26" spans="1:26" ht="15.75" customHeight="1">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -1276,7 +1307,7 @@
       <c r="Y26" s="1"/>
       <c r="Z26" s="1"/>
     </row>
-    <row r="27" ht="15.75" customHeight="1">
+    <row r="27" spans="1:26" ht="15.75" customHeight="1">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -1303,7 +1334,7 @@
       <c r="Y27" s="1"/>
       <c r="Z27" s="1"/>
     </row>
-    <row r="28" ht="15.75" customHeight="1">
+    <row r="28" spans="1:26" ht="15.75" customHeight="1">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -1330,7 +1361,7 @@
       <c r="Y28" s="1"/>
       <c r="Z28" s="1"/>
     </row>
-    <row r="29" ht="15.75" customHeight="1">
+    <row r="29" spans="1:26" ht="15.75" customHeight="1">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -1357,7 +1388,7 @@
       <c r="Y29" s="1"/>
       <c r="Z29" s="1"/>
     </row>
-    <row r="30" ht="15.75" customHeight="1">
+    <row r="30" spans="1:26" ht="15.75" customHeight="1">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -1384,7 +1415,7 @@
       <c r="Y30" s="1"/>
       <c r="Z30" s="1"/>
     </row>
-    <row r="31" ht="15.75" customHeight="1">
+    <row r="31" spans="1:26" ht="15.75" customHeight="1">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -1411,7 +1442,7 @@
       <c r="Y31" s="1"/>
       <c r="Z31" s="1"/>
     </row>
-    <row r="32" ht="15.75" customHeight="1">
+    <row r="32" spans="1:26" ht="15.75" customHeight="1">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -1438,7 +1469,7 @@
       <c r="Y32" s="1"/>
       <c r="Z32" s="1"/>
     </row>
-    <row r="33" ht="15.75" customHeight="1">
+    <row r="33" spans="1:26" ht="15.75" customHeight="1">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -1465,7 +1496,7 @@
       <c r="Y33" s="1"/>
       <c r="Z33" s="1"/>
     </row>
-    <row r="34" ht="15.75" customHeight="1">
+    <row r="34" spans="1:26" ht="15.75" customHeight="1">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -1492,7 +1523,7 @@
       <c r="Y34" s="1"/>
       <c r="Z34" s="1"/>
     </row>
-    <row r="35" ht="15.75" customHeight="1">
+    <row r="35" spans="1:26" ht="15.75" customHeight="1">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -1519,7 +1550,7 @@
       <c r="Y35" s="1"/>
       <c r="Z35" s="1"/>
     </row>
-    <row r="36" ht="15.75" customHeight="1">
+    <row r="36" spans="1:26" ht="15.75" customHeight="1">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -1546,7 +1577,7 @@
       <c r="Y36" s="1"/>
       <c r="Z36" s="1"/>
     </row>
-    <row r="37" ht="15.75" customHeight="1">
+    <row r="37" spans="1:26" ht="15.75" customHeight="1">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -1573,7 +1604,7 @@
       <c r="Y37" s="1"/>
       <c r="Z37" s="1"/>
     </row>
-    <row r="38" ht="15.75" customHeight="1">
+    <row r="38" spans="1:26" ht="15.75" customHeight="1">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -1600,7 +1631,7 @@
       <c r="Y38" s="1"/>
       <c r="Z38" s="1"/>
     </row>
-    <row r="39" ht="15.75" customHeight="1">
+    <row r="39" spans="1:26" ht="15.75" customHeight="1">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
@@ -1627,7 +1658,7 @@
       <c r="Y39" s="1"/>
       <c r="Z39" s="1"/>
     </row>
-    <row r="40" ht="15.75" customHeight="1">
+    <row r="40" spans="1:26" ht="15.75" customHeight="1">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
@@ -1654,7 +1685,7 @@
       <c r="Y40" s="1"/>
       <c r="Z40" s="1"/>
     </row>
-    <row r="41" ht="15.75" customHeight="1">
+    <row r="41" spans="1:26" ht="15.75" customHeight="1">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
@@ -1681,7 +1712,7 @@
       <c r="Y41" s="1"/>
       <c r="Z41" s="1"/>
     </row>
-    <row r="42" ht="15.75" customHeight="1">
+    <row r="42" spans="1:26" ht="15.75" customHeight="1">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
@@ -1708,7 +1739,7 @@
       <c r="Y42" s="1"/>
       <c r="Z42" s="1"/>
     </row>
-    <row r="43" ht="15.75" customHeight="1">
+    <row r="43" spans="1:26" ht="15.75" customHeight="1">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
@@ -1735,7 +1766,7 @@
       <c r="Y43" s="1"/>
       <c r="Z43" s="1"/>
     </row>
-    <row r="44" ht="15.75" customHeight="1">
+    <row r="44" spans="1:26" ht="15.75" customHeight="1">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
@@ -1762,7 +1793,7 @@
       <c r="Y44" s="1"/>
       <c r="Z44" s="1"/>
     </row>
-    <row r="45" ht="15.75" customHeight="1">
+    <row r="45" spans="1:26" ht="15.75" customHeight="1">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
@@ -1789,7 +1820,7 @@
       <c r="Y45" s="1"/>
       <c r="Z45" s="1"/>
     </row>
-    <row r="46" ht="15.75" customHeight="1">
+    <row r="46" spans="1:26" ht="15.75" customHeight="1">
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
@@ -1816,7 +1847,7 @@
       <c r="Y46" s="1"/>
       <c r="Z46" s="1"/>
     </row>
-    <row r="47" ht="15.75" customHeight="1">
+    <row r="47" spans="1:26" ht="15.75" customHeight="1">
       <c r="A47" s="3"/>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
@@ -1843,7 +1874,7 @@
       <c r="Y47" s="1"/>
       <c r="Z47" s="1"/>
     </row>
-    <row r="48" ht="15.75" customHeight="1">
+    <row r="48" spans="1:26" ht="15.75" customHeight="1">
       <c r="A48" s="3"/>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
@@ -1870,7 +1901,7 @@
       <c r="Y48" s="1"/>
       <c r="Z48" s="1"/>
     </row>
-    <row r="49" ht="15.75" customHeight="1">
+    <row r="49" spans="1:26" ht="15.75" customHeight="1">
       <c r="A49" s="3"/>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
@@ -1897,7 +1928,7 @@
       <c r="Y49" s="1"/>
       <c r="Z49" s="1"/>
     </row>
-    <row r="50" ht="15.75" customHeight="1">
+    <row r="50" spans="1:26" ht="15.75" customHeight="1">
       <c r="A50" s="3"/>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
@@ -1924,7 +1955,7 @@
       <c r="Y50" s="1"/>
       <c r="Z50" s="1"/>
     </row>
-    <row r="51" ht="15.75" customHeight="1">
+    <row r="51" spans="1:26" ht="15.75" customHeight="1">
       <c r="A51" s="3"/>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
@@ -1951,7 +1982,7 @@
       <c r="Y51" s="1"/>
       <c r="Z51" s="1"/>
     </row>
-    <row r="52" ht="15.75" customHeight="1">
+    <row r="52" spans="1:26" ht="15.75" customHeight="1">
       <c r="A52" s="3"/>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
@@ -1978,7 +2009,7 @@
       <c r="Y52" s="1"/>
       <c r="Z52" s="1"/>
     </row>
-    <row r="53" ht="15.75" customHeight="1">
+    <row r="53" spans="1:26" ht="15.75" customHeight="1">
       <c r="A53" s="3"/>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
@@ -2005,7 +2036,7 @@
       <c r="Y53" s="1"/>
       <c r="Z53" s="1"/>
     </row>
-    <row r="54" ht="15.75" customHeight="1">
+    <row r="54" spans="1:26" ht="15.75" customHeight="1">
       <c r="A54" s="3"/>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
@@ -2032,7 +2063,7 @@
       <c r="Y54" s="1"/>
       <c r="Z54" s="1"/>
     </row>
-    <row r="55" ht="15.75" customHeight="1">
+    <row r="55" spans="1:26" ht="15.75" customHeight="1">
       <c r="A55" s="3"/>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
@@ -2059,7 +2090,7 @@
       <c r="Y55" s="1"/>
       <c r="Z55" s="1"/>
     </row>
-    <row r="56" ht="15.75" customHeight="1">
+    <row r="56" spans="1:26" ht="15.75" customHeight="1">
       <c r="A56" s="3"/>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
@@ -2086,7 +2117,7 @@
       <c r="Y56" s="1"/>
       <c r="Z56" s="1"/>
     </row>
-    <row r="57" ht="15.75" customHeight="1">
+    <row r="57" spans="1:26" ht="15.75" customHeight="1">
       <c r="A57" s="3"/>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
@@ -2113,7 +2144,7 @@
       <c r="Y57" s="1"/>
       <c r="Z57" s="1"/>
     </row>
-    <row r="58" ht="15.75" customHeight="1">
+    <row r="58" spans="1:26" ht="15.75" customHeight="1">
       <c r="A58" s="3"/>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
@@ -2140,7 +2171,7 @@
       <c r="Y58" s="1"/>
       <c r="Z58" s="1"/>
     </row>
-    <row r="59" ht="15.75" customHeight="1">
+    <row r="59" spans="1:26" ht="15.75" customHeight="1">
       <c r="A59" s="3"/>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
@@ -2167,7 +2198,7 @@
       <c r="Y59" s="1"/>
       <c r="Z59" s="1"/>
     </row>
-    <row r="60" ht="15.75" customHeight="1">
+    <row r="60" spans="1:26" ht="15.75" customHeight="1">
       <c r="A60" s="3"/>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
@@ -2194,7 +2225,7 @@
       <c r="Y60" s="1"/>
       <c r="Z60" s="1"/>
     </row>
-    <row r="61" ht="15.75" customHeight="1">
+    <row r="61" spans="1:26" ht="15.75" customHeight="1">
       <c r="A61" s="3"/>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
@@ -2221,7 +2252,7 @@
       <c r="Y61" s="1"/>
       <c r="Z61" s="1"/>
     </row>
-    <row r="62" ht="15.75" customHeight="1">
+    <row r="62" spans="1:26" ht="15.75" customHeight="1">
       <c r="A62" s="3"/>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
@@ -2248,7 +2279,7 @@
       <c r="Y62" s="1"/>
       <c r="Z62" s="1"/>
     </row>
-    <row r="63" ht="15.75" customHeight="1">
+    <row r="63" spans="1:26" ht="15.75" customHeight="1">
       <c r="A63" s="3"/>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
@@ -2275,7 +2306,7 @@
       <c r="Y63" s="1"/>
       <c r="Z63" s="1"/>
     </row>
-    <row r="64" ht="15.75" customHeight="1">
+    <row r="64" spans="1:26" ht="15.75" customHeight="1">
       <c r="A64" s="3"/>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
@@ -2302,7 +2333,7 @@
       <c r="Y64" s="1"/>
       <c r="Z64" s="1"/>
     </row>
-    <row r="65" ht="15.75" customHeight="1">
+    <row r="65" spans="1:26" ht="15.75" customHeight="1">
       <c r="A65" s="3"/>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
@@ -2329,7 +2360,7 @@
       <c r="Y65" s="1"/>
       <c r="Z65" s="1"/>
     </row>
-    <row r="66" ht="15.75" customHeight="1">
+    <row r="66" spans="1:26" ht="15.75" customHeight="1">
       <c r="A66" s="3"/>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
@@ -2356,7 +2387,7 @@
       <c r="Y66" s="1"/>
       <c r="Z66" s="1"/>
     </row>
-    <row r="67" ht="15.75" customHeight="1">
+    <row r="67" spans="1:26" ht="15.75" customHeight="1">
       <c r="A67" s="3"/>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
@@ -2383,7 +2414,7 @@
       <c r="Y67" s="1"/>
       <c r="Z67" s="1"/>
     </row>
-    <row r="68" ht="15.75" customHeight="1">
+    <row r="68" spans="1:26" ht="15.75" customHeight="1">
       <c r="A68" s="3"/>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
@@ -2410,7 +2441,7 @@
       <c r="Y68" s="1"/>
       <c r="Z68" s="1"/>
     </row>
-    <row r="69" ht="15.75" customHeight="1">
+    <row r="69" spans="1:26" ht="15.75" customHeight="1">
       <c r="A69" s="3"/>
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
@@ -2437,7 +2468,7 @@
       <c r="Y69" s="1"/>
       <c r="Z69" s="1"/>
     </row>
-    <row r="70" ht="15.75" customHeight="1">
+    <row r="70" spans="1:26" ht="15.75" customHeight="1">
       <c r="A70" s="3"/>
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
@@ -2464,7 +2495,7 @@
       <c r="Y70" s="1"/>
       <c r="Z70" s="1"/>
     </row>
-    <row r="71" ht="15.75" customHeight="1">
+    <row r="71" spans="1:26" ht="15.75" customHeight="1">
       <c r="A71" s="3"/>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
@@ -2491,7 +2522,7 @@
       <c r="Y71" s="1"/>
       <c r="Z71" s="1"/>
     </row>
-    <row r="72" ht="15.75" customHeight="1">
+    <row r="72" spans="1:26" ht="15.75" customHeight="1">
       <c r="A72" s="3"/>
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
@@ -2518,7 +2549,7 @@
       <c r="Y72" s="1"/>
       <c r="Z72" s="1"/>
     </row>
-    <row r="73" ht="15.75" customHeight="1">
+    <row r="73" spans="1:26" ht="15.75" customHeight="1">
       <c r="A73" s="3"/>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
@@ -2545,7 +2576,7 @@
       <c r="Y73" s="1"/>
       <c r="Z73" s="1"/>
     </row>
-    <row r="74" ht="15.75" customHeight="1">
+    <row r="74" spans="1:26" ht="15.75" customHeight="1">
       <c r="A74" s="3"/>
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
@@ -2572,7 +2603,7 @@
       <c r="Y74" s="1"/>
       <c r="Z74" s="1"/>
     </row>
-    <row r="75" ht="15.75" customHeight="1">
+    <row r="75" spans="1:26" ht="15.75" customHeight="1">
       <c r="A75" s="3"/>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
@@ -2599,7 +2630,7 @@
       <c r="Y75" s="1"/>
       <c r="Z75" s="1"/>
     </row>
-    <row r="76" ht="15.75" customHeight="1">
+    <row r="76" spans="1:26" ht="15.75" customHeight="1">
       <c r="A76" s="3"/>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
@@ -2626,7 +2657,7 @@
       <c r="Y76" s="1"/>
       <c r="Z76" s="1"/>
     </row>
-    <row r="77" ht="15.75" customHeight="1">
+    <row r="77" spans="1:26" ht="15.75" customHeight="1">
       <c r="A77" s="3"/>
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
@@ -2653,7 +2684,7 @@
       <c r="Y77" s="1"/>
       <c r="Z77" s="1"/>
     </row>
-    <row r="78" ht="15.75" customHeight="1">
+    <row r="78" spans="1:26" ht="15.75" customHeight="1">
       <c r="A78" s="3"/>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
@@ -2680,7 +2711,7 @@
       <c r="Y78" s="1"/>
       <c r="Z78" s="1"/>
     </row>
-    <row r="79" ht="15.75" customHeight="1">
+    <row r="79" spans="1:26" ht="15.75" customHeight="1">
       <c r="A79" s="3"/>
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
@@ -2707,7 +2738,7 @@
       <c r="Y79" s="1"/>
       <c r="Z79" s="1"/>
     </row>
-    <row r="80" ht="15.75" customHeight="1">
+    <row r="80" spans="1:26" ht="15.75" customHeight="1">
       <c r="A80" s="3"/>
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
@@ -2734,7 +2765,7 @@
       <c r="Y80" s="1"/>
       <c r="Z80" s="1"/>
     </row>
-    <row r="81" ht="15.75" customHeight="1">
+    <row r="81" spans="1:26" ht="15.75" customHeight="1">
       <c r="A81" s="3"/>
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
@@ -2761,7 +2792,7 @@
       <c r="Y81" s="1"/>
       <c r="Z81" s="1"/>
     </row>
-    <row r="82" ht="15.75" customHeight="1">
+    <row r="82" spans="1:26" ht="15.75" customHeight="1">
       <c r="A82" s="3"/>
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
@@ -2788,7 +2819,7 @@
       <c r="Y82" s="1"/>
       <c r="Z82" s="1"/>
     </row>
-    <row r="83" ht="15.75" customHeight="1">
+    <row r="83" spans="1:26" ht="15.75" customHeight="1">
       <c r="A83" s="3"/>
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
@@ -2815,7 +2846,7 @@
       <c r="Y83" s="1"/>
       <c r="Z83" s="1"/>
     </row>
-    <row r="84" ht="15.75" customHeight="1">
+    <row r="84" spans="1:26" ht="15.75" customHeight="1">
       <c r="A84" s="3"/>
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
@@ -2842,7 +2873,7 @@
       <c r="Y84" s="1"/>
       <c r="Z84" s="1"/>
     </row>
-    <row r="85" ht="15.75" customHeight="1">
+    <row r="85" spans="1:26" ht="15.75" customHeight="1">
       <c r="A85" s="3"/>
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
@@ -2869,7 +2900,7 @@
       <c r="Y85" s="1"/>
       <c r="Z85" s="1"/>
     </row>
-    <row r="86" ht="15.75" customHeight="1">
+    <row r="86" spans="1:26" ht="15.75" customHeight="1">
       <c r="A86" s="3"/>
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
@@ -2896,7 +2927,7 @@
       <c r="Y86" s="1"/>
       <c r="Z86" s="1"/>
     </row>
-    <row r="87" ht="15.75" customHeight="1">
+    <row r="87" spans="1:26" ht="15.75" customHeight="1">
       <c r="A87" s="3"/>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
@@ -2923,7 +2954,7 @@
       <c r="Y87" s="1"/>
       <c r="Z87" s="1"/>
     </row>
-    <row r="88" ht="15.75" customHeight="1">
+    <row r="88" spans="1:26" ht="15.75" customHeight="1">
       <c r="A88" s="3"/>
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
@@ -2950,7 +2981,7 @@
       <c r="Y88" s="1"/>
       <c r="Z88" s="1"/>
     </row>
-    <row r="89" ht="15.75" customHeight="1">
+    <row r="89" spans="1:26" ht="15.75" customHeight="1">
       <c r="A89" s="3"/>
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
@@ -2977,7 +3008,7 @@
       <c r="Y89" s="1"/>
       <c r="Z89" s="1"/>
     </row>
-    <row r="90" ht="15.75" customHeight="1">
+    <row r="90" spans="1:26" ht="15.75" customHeight="1">
       <c r="A90" s="3"/>
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
@@ -3004,7 +3035,7 @@
       <c r="Y90" s="1"/>
       <c r="Z90" s="1"/>
     </row>
-    <row r="91" ht="15.75" customHeight="1">
+    <row r="91" spans="1:26" ht="15.75" customHeight="1">
       <c r="A91" s="3"/>
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
@@ -3031,7 +3062,7 @@
       <c r="Y91" s="1"/>
       <c r="Z91" s="1"/>
     </row>
-    <row r="92" ht="15.75" customHeight="1">
+    <row r="92" spans="1:26" ht="15.75" customHeight="1">
       <c r="A92" s="3"/>
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
@@ -3058,7 +3089,7 @@
       <c r="Y92" s="1"/>
       <c r="Z92" s="1"/>
     </row>
-    <row r="93" ht="15.75" customHeight="1">
+    <row r="93" spans="1:26" ht="15.75" customHeight="1">
       <c r="A93" s="3"/>
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
@@ -3085,7 +3116,7 @@
       <c r="Y93" s="1"/>
       <c r="Z93" s="1"/>
     </row>
-    <row r="94" ht="15.75" customHeight="1">
+    <row r="94" spans="1:26" ht="15.75" customHeight="1">
       <c r="A94" s="3"/>
       <c r="B94" s="3"/>
       <c r="C94" s="3"/>
@@ -3112,7 +3143,7 @@
       <c r="Y94" s="1"/>
       <c r="Z94" s="1"/>
     </row>
-    <row r="95" ht="15.75" customHeight="1">
+    <row r="95" spans="1:26" ht="15.75" customHeight="1">
       <c r="A95" s="3"/>
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>
@@ -3139,7 +3170,7 @@
       <c r="Y95" s="1"/>
       <c r="Z95" s="1"/>
     </row>
-    <row r="96" ht="15.75" customHeight="1">
+    <row r="96" spans="1:26" ht="15.75" customHeight="1">
       <c r="A96" s="3"/>
       <c r="B96" s="3"/>
       <c r="C96" s="3"/>
@@ -3166,7 +3197,7 @@
       <c r="Y96" s="1"/>
       <c r="Z96" s="1"/>
     </row>
-    <row r="97" ht="15.75" customHeight="1">
+    <row r="97" spans="1:26" ht="15.75" customHeight="1">
       <c r="A97" s="3"/>
       <c r="B97" s="3"/>
       <c r="C97" s="3"/>
@@ -3193,7 +3224,7 @@
       <c r="Y97" s="1"/>
       <c r="Z97" s="1"/>
     </row>
-    <row r="98" ht="15.75" customHeight="1">
+    <row r="98" spans="1:26" ht="15.75" customHeight="1">
       <c r="A98" s="3"/>
       <c r="B98" s="3"/>
       <c r="C98" s="3"/>
@@ -3220,7 +3251,7 @@
       <c r="Y98" s="1"/>
       <c r="Z98" s="1"/>
     </row>
-    <row r="99" ht="15.75" customHeight="1">
+    <row r="99" spans="1:26" ht="15.75" customHeight="1">
       <c r="A99" s="3"/>
       <c r="B99" s="3"/>
       <c r="C99" s="3"/>
@@ -3247,7 +3278,7 @@
       <c r="Y99" s="1"/>
       <c r="Z99" s="1"/>
     </row>
-    <row r="100" ht="15.75" customHeight="1">
+    <row r="100" spans="1:26" ht="15.75" customHeight="1">
       <c r="A100" s="3"/>
       <c r="B100" s="3"/>
       <c r="C100" s="3"/>
@@ -3274,7 +3305,7 @@
       <c r="Y100" s="1"/>
       <c r="Z100" s="1"/>
     </row>
-    <row r="101" ht="15.75" customHeight="1">
+    <row r="101" spans="1:26" ht="15.75" customHeight="1">
       <c r="A101" s="3"/>
       <c r="B101" s="3"/>
       <c r="C101" s="3"/>
@@ -3301,7 +3332,7 @@
       <c r="Y101" s="1"/>
       <c r="Z101" s="1"/>
     </row>
-    <row r="102" ht="15.75" customHeight="1">
+    <row r="102" spans="1:26" ht="15.75" customHeight="1">
       <c r="A102" s="3"/>
       <c r="B102" s="3"/>
       <c r="C102" s="3"/>
@@ -3328,7 +3359,7 @@
       <c r="Y102" s="1"/>
       <c r="Z102" s="1"/>
     </row>
-    <row r="103" ht="15.75" customHeight="1">
+    <row r="103" spans="1:26" ht="15.75" customHeight="1">
       <c r="A103" s="3"/>
       <c r="B103" s="3"/>
       <c r="C103" s="3"/>
@@ -3355,7 +3386,7 @@
       <c r="Y103" s="1"/>
       <c r="Z103" s="1"/>
     </row>
-    <row r="104" ht="15.75" customHeight="1">
+    <row r="104" spans="1:26" ht="15.75" customHeight="1">
       <c r="A104" s="3"/>
       <c r="B104" s="3"/>
       <c r="C104" s="3"/>
@@ -3382,7 +3413,7 @@
       <c r="Y104" s="1"/>
       <c r="Z104" s="1"/>
     </row>
-    <row r="105" ht="15.75" customHeight="1">
+    <row r="105" spans="1:26" ht="15.75" customHeight="1">
       <c r="A105" s="3"/>
       <c r="B105" s="3"/>
       <c r="C105" s="3"/>
@@ -3409,7 +3440,7 @@
       <c r="Y105" s="1"/>
       <c r="Z105" s="1"/>
     </row>
-    <row r="106" ht="15.75" customHeight="1">
+    <row r="106" spans="1:26" ht="15.75" customHeight="1">
       <c r="A106" s="3"/>
       <c r="B106" s="3"/>
       <c r="C106" s="3"/>
@@ -3436,7 +3467,7 @@
       <c r="Y106" s="1"/>
       <c r="Z106" s="1"/>
     </row>
-    <row r="107" ht="15.75" customHeight="1">
+    <row r="107" spans="1:26" ht="15.75" customHeight="1">
       <c r="A107" s="3"/>
       <c r="B107" s="3"/>
       <c r="C107" s="3"/>
@@ -3463,7 +3494,7 @@
       <c r="Y107" s="1"/>
       <c r="Z107" s="1"/>
     </row>
-    <row r="108" ht="15.75" customHeight="1">
+    <row r="108" spans="1:26" ht="15.75" customHeight="1">
       <c r="A108" s="3"/>
       <c r="B108" s="3"/>
       <c r="C108" s="3"/>
@@ -3490,7 +3521,7 @@
       <c r="Y108" s="1"/>
       <c r="Z108" s="1"/>
     </row>
-    <row r="109" ht="15.75" customHeight="1">
+    <row r="109" spans="1:26" ht="15.75" customHeight="1">
       <c r="A109" s="3"/>
       <c r="B109" s="3"/>
       <c r="C109" s="3"/>
@@ -3517,7 +3548,7 @@
       <c r="Y109" s="1"/>
       <c r="Z109" s="1"/>
     </row>
-    <row r="110" ht="15.75" customHeight="1">
+    <row r="110" spans="1:26" ht="15.75" customHeight="1">
       <c r="A110" s="3"/>
       <c r="B110" s="3"/>
       <c r="C110" s="3"/>
@@ -3544,7 +3575,7 @@
       <c r="Y110" s="1"/>
       <c r="Z110" s="1"/>
     </row>
-    <row r="111" ht="15.75" customHeight="1">
+    <row r="111" spans="1:26" ht="15.75" customHeight="1">
       <c r="A111" s="3"/>
       <c r="B111" s="3"/>
       <c r="C111" s="3"/>
@@ -3571,7 +3602,7 @@
       <c r="Y111" s="1"/>
       <c r="Z111" s="1"/>
     </row>
-    <row r="112" ht="15.75" customHeight="1">
+    <row r="112" spans="1:26" ht="15.75" customHeight="1">
       <c r="A112" s="3"/>
       <c r="B112" s="3"/>
       <c r="C112" s="3"/>
@@ -3598,7 +3629,7 @@
       <c r="Y112" s="1"/>
       <c r="Z112" s="1"/>
     </row>
-    <row r="113" ht="15.75" customHeight="1">
+    <row r="113" spans="1:26" ht="15.75" customHeight="1">
       <c r="A113" s="3"/>
       <c r="B113" s="3"/>
       <c r="C113" s="3"/>
@@ -3625,7 +3656,7 @@
       <c r="Y113" s="1"/>
       <c r="Z113" s="1"/>
     </row>
-    <row r="114" ht="15.75" customHeight="1">
+    <row r="114" spans="1:26" ht="15.75" customHeight="1">
       <c r="A114" s="3"/>
       <c r="B114" s="3"/>
       <c r="C114" s="3"/>
@@ -3652,7 +3683,7 @@
       <c r="Y114" s="1"/>
       <c r="Z114" s="1"/>
     </row>
-    <row r="115" ht="15.75" customHeight="1">
+    <row r="115" spans="1:26" ht="15.75" customHeight="1">
       <c r="A115" s="3"/>
       <c r="B115" s="3"/>
       <c r="C115" s="3"/>
@@ -3679,7 +3710,7 @@
       <c r="Y115" s="1"/>
       <c r="Z115" s="1"/>
     </row>
-    <row r="116" ht="15.75" customHeight="1">
+    <row r="116" spans="1:26" ht="15.75" customHeight="1">
       <c r="A116" s="3"/>
       <c r="B116" s="3"/>
       <c r="C116" s="3"/>
@@ -3706,7 +3737,7 @@
       <c r="Y116" s="1"/>
       <c r="Z116" s="1"/>
     </row>
-    <row r="117" ht="15.75" customHeight="1">
+    <row r="117" spans="1:26" ht="15.75" customHeight="1">
       <c r="A117" s="3"/>
       <c r="B117" s="3"/>
       <c r="C117" s="3"/>
@@ -3733,7 +3764,7 @@
       <c r="Y117" s="1"/>
       <c r="Z117" s="1"/>
     </row>
-    <row r="118" ht="15.75" customHeight="1">
+    <row r="118" spans="1:26" ht="15.75" customHeight="1">
       <c r="A118" s="3"/>
       <c r="B118" s="3"/>
       <c r="C118" s="3"/>
@@ -3760,7 +3791,7 @@
       <c r="Y118" s="1"/>
       <c r="Z118" s="1"/>
     </row>
-    <row r="119" ht="15.75" customHeight="1">
+    <row r="119" spans="1:26" ht="15.75" customHeight="1">
       <c r="A119" s="3"/>
       <c r="B119" s="3"/>
       <c r="C119" s="3"/>
@@ -3787,7 +3818,7 @@
       <c r="Y119" s="1"/>
       <c r="Z119" s="1"/>
     </row>
-    <row r="120" ht="15.75" customHeight="1">
+    <row r="120" spans="1:26" ht="15.75" customHeight="1">
       <c r="A120" s="3"/>
       <c r="B120" s="3"/>
       <c r="C120" s="3"/>
@@ -3814,7 +3845,7 @@
       <c r="Y120" s="1"/>
       <c r="Z120" s="1"/>
     </row>
-    <row r="121" ht="15.75" customHeight="1">
+    <row r="121" spans="1:26" ht="15.75" customHeight="1">
       <c r="A121" s="3"/>
       <c r="B121" s="3"/>
       <c r="C121" s="3"/>
@@ -3841,7 +3872,7 @@
       <c r="Y121" s="1"/>
       <c r="Z121" s="1"/>
     </row>
-    <row r="122" ht="15.75" customHeight="1">
+    <row r="122" spans="1:26" ht="15.75" customHeight="1">
       <c r="A122" s="3"/>
       <c r="B122" s="3"/>
       <c r="C122" s="3"/>
@@ -3868,7 +3899,7 @@
       <c r="Y122" s="1"/>
       <c r="Z122" s="1"/>
     </row>
-    <row r="123" ht="15.75" customHeight="1">
+    <row r="123" spans="1:26" ht="15.75" customHeight="1">
       <c r="A123" s="3"/>
       <c r="B123" s="3"/>
       <c r="C123" s="3"/>
@@ -3895,7 +3926,7 @@
       <c r="Y123" s="1"/>
       <c r="Z123" s="1"/>
     </row>
-    <row r="124" ht="15.75" customHeight="1">
+    <row r="124" spans="1:26" ht="15.75" customHeight="1">
       <c r="A124" s="3"/>
       <c r="B124" s="3"/>
       <c r="C124" s="3"/>
@@ -3922,7 +3953,7 @@
       <c r="Y124" s="1"/>
       <c r="Z124" s="1"/>
     </row>
-    <row r="125" ht="15.75" customHeight="1">
+    <row r="125" spans="1:26" ht="15.75" customHeight="1">
       <c r="A125" s="3"/>
       <c r="B125" s="3"/>
       <c r="C125" s="3"/>
@@ -3949,7 +3980,7 @@
       <c r="Y125" s="1"/>
       <c r="Z125" s="1"/>
     </row>
-    <row r="126" ht="15.75" customHeight="1">
+    <row r="126" spans="1:26" ht="15.75" customHeight="1">
       <c r="A126" s="3"/>
       <c r="B126" s="3"/>
       <c r="C126" s="3"/>
@@ -3976,7 +4007,7 @@
       <c r="Y126" s="1"/>
       <c r="Z126" s="1"/>
     </row>
-    <row r="127" ht="15.75" customHeight="1">
+    <row r="127" spans="1:26" ht="15.75" customHeight="1">
       <c r="A127" s="3"/>
       <c r="B127" s="3"/>
       <c r="C127" s="3"/>
@@ -4003,7 +4034,7 @@
       <c r="Y127" s="1"/>
       <c r="Z127" s="1"/>
     </row>
-    <row r="128" ht="15.75" customHeight="1">
+    <row r="128" spans="1:26" ht="15.75" customHeight="1">
       <c r="A128" s="3"/>
       <c r="B128" s="3"/>
       <c r="C128" s="3"/>
@@ -4030,7 +4061,7 @@
       <c r="Y128" s="1"/>
       <c r="Z128" s="1"/>
     </row>
-    <row r="129" ht="15.75" customHeight="1">
+    <row r="129" spans="1:26" ht="15.75" customHeight="1">
       <c r="A129" s="3"/>
       <c r="B129" s="3"/>
       <c r="C129" s="3"/>
@@ -4057,7 +4088,7 @@
       <c r="Y129" s="1"/>
       <c r="Z129" s="1"/>
     </row>
-    <row r="130" ht="15.75" customHeight="1">
+    <row r="130" spans="1:26" ht="15.75" customHeight="1">
       <c r="A130" s="3"/>
       <c r="B130" s="3"/>
       <c r="C130" s="3"/>
@@ -4084,7 +4115,7 @@
       <c r="Y130" s="1"/>
       <c r="Z130" s="1"/>
     </row>
-    <row r="131" ht="15.75" customHeight="1">
+    <row r="131" spans="1:26" ht="15.75" customHeight="1">
       <c r="A131" s="3"/>
       <c r="B131" s="3"/>
       <c r="C131" s="3"/>
@@ -4111,7 +4142,7 @@
       <c r="Y131" s="1"/>
       <c r="Z131" s="1"/>
     </row>
-    <row r="132" ht="15.75" customHeight="1">
+    <row r="132" spans="1:26" ht="15.75" customHeight="1">
       <c r="A132" s="3"/>
       <c r="B132" s="3"/>
       <c r="C132" s="3"/>
@@ -4138,7 +4169,7 @@
       <c r="Y132" s="1"/>
       <c r="Z132" s="1"/>
     </row>
-    <row r="133" ht="15.75" customHeight="1">
+    <row r="133" spans="1:26" ht="15.75" customHeight="1">
       <c r="A133" s="3"/>
       <c r="B133" s="3"/>
       <c r="C133" s="3"/>
@@ -4165,7 +4196,7 @@
       <c r="Y133" s="1"/>
       <c r="Z133" s="1"/>
     </row>
-    <row r="134" ht="15.75" customHeight="1">
+    <row r="134" spans="1:26" ht="15.75" customHeight="1">
       <c r="A134" s="3"/>
       <c r="B134" s="3"/>
       <c r="C134" s="3"/>
@@ -4192,7 +4223,7 @@
       <c r="Y134" s="1"/>
       <c r="Z134" s="1"/>
     </row>
-    <row r="135" ht="15.75" customHeight="1">
+    <row r="135" spans="1:26" ht="15.75" customHeight="1">
       <c r="A135" s="3"/>
       <c r="B135" s="3"/>
       <c r="C135" s="3"/>
@@ -4219,7 +4250,7 @@
       <c r="Y135" s="1"/>
       <c r="Z135" s="1"/>
     </row>
-    <row r="136" ht="15.75" customHeight="1">
+    <row r="136" spans="1:26" ht="15.75" customHeight="1">
       <c r="A136" s="3"/>
       <c r="B136" s="3"/>
       <c r="C136" s="3"/>
@@ -4246,7 +4277,7 @@
       <c r="Y136" s="1"/>
       <c r="Z136" s="1"/>
     </row>
-    <row r="137" ht="15.75" customHeight="1">
+    <row r="137" spans="1:26" ht="15.75" customHeight="1">
       <c r="A137" s="3"/>
       <c r="B137" s="3"/>
       <c r="C137" s="3"/>
@@ -4273,7 +4304,7 @@
       <c r="Y137" s="1"/>
       <c r="Z137" s="1"/>
     </row>
-    <row r="138" ht="15.75" customHeight="1">
+    <row r="138" spans="1:26" ht="15.75" customHeight="1">
       <c r="A138" s="3"/>
       <c r="B138" s="3"/>
       <c r="C138" s="3"/>
@@ -4300,7 +4331,7 @@
       <c r="Y138" s="1"/>
       <c r="Z138" s="1"/>
     </row>
-    <row r="139" ht="15.75" customHeight="1">
+    <row r="139" spans="1:26" ht="15.75" customHeight="1">
       <c r="A139" s="3"/>
       <c r="B139" s="3"/>
       <c r="C139" s="3"/>
@@ -4327,7 +4358,7 @@
       <c r="Y139" s="1"/>
       <c r="Z139" s="1"/>
     </row>
-    <row r="140" ht="15.75" customHeight="1">
+    <row r="140" spans="1:26" ht="15.75" customHeight="1">
       <c r="A140" s="3"/>
       <c r="B140" s="3"/>
       <c r="C140" s="3"/>
@@ -4354,7 +4385,7 @@
       <c r="Y140" s="1"/>
       <c r="Z140" s="1"/>
     </row>
-    <row r="141" ht="15.75" customHeight="1">
+    <row r="141" spans="1:26" ht="15.75" customHeight="1">
       <c r="A141" s="3"/>
       <c r="B141" s="3"/>
       <c r="C141" s="3"/>
@@ -4381,7 +4412,7 @@
       <c r="Y141" s="1"/>
       <c r="Z141" s="1"/>
     </row>
-    <row r="142" ht="15.75" customHeight="1">
+    <row r="142" spans="1:26" ht="15.75" customHeight="1">
       <c r="A142" s="3"/>
       <c r="B142" s="3"/>
       <c r="C142" s="3"/>
@@ -4408,7 +4439,7 @@
       <c r="Y142" s="1"/>
       <c r="Z142" s="1"/>
     </row>
-    <row r="143" ht="15.75" customHeight="1">
+    <row r="143" spans="1:26" ht="15.75" customHeight="1">
       <c r="A143" s="3"/>
       <c r="B143" s="3"/>
       <c r="C143" s="3"/>
@@ -4435,7 +4466,7 @@
       <c r="Y143" s="1"/>
       <c r="Z143" s="1"/>
     </row>
-    <row r="144" ht="15.75" customHeight="1">
+    <row r="144" spans="1:26" ht="15.75" customHeight="1">
       <c r="A144" s="3"/>
       <c r="B144" s="3"/>
       <c r="C144" s="3"/>
@@ -4462,7 +4493,7 @@
       <c r="Y144" s="1"/>
       <c r="Z144" s="1"/>
     </row>
-    <row r="145" ht="15.75" customHeight="1">
+    <row r="145" spans="1:26" ht="15.75" customHeight="1">
       <c r="A145" s="3"/>
       <c r="B145" s="3"/>
       <c r="C145" s="3"/>
@@ -4489,7 +4520,7 @@
       <c r="Y145" s="1"/>
       <c r="Z145" s="1"/>
     </row>
-    <row r="146" ht="15.75" customHeight="1">
+    <row r="146" spans="1:26" ht="15.75" customHeight="1">
       <c r="A146" s="3"/>
       <c r="B146" s="3"/>
       <c r="C146" s="3"/>
@@ -4516,7 +4547,7 @@
       <c r="Y146" s="1"/>
       <c r="Z146" s="1"/>
     </row>
-    <row r="147" ht="15.75" customHeight="1">
+    <row r="147" spans="1:26" ht="15.75" customHeight="1">
       <c r="A147" s="3"/>
       <c r="B147" s="3"/>
       <c r="C147" s="3"/>
@@ -4543,7 +4574,7 @@
       <c r="Y147" s="1"/>
       <c r="Z147" s="1"/>
     </row>
-    <row r="148" ht="15.75" customHeight="1">
+    <row r="148" spans="1:26" ht="15.75" customHeight="1">
       <c r="A148" s="3"/>
       <c r="B148" s="3"/>
       <c r="C148" s="3"/>
@@ -4570,7 +4601,7 @@
       <c r="Y148" s="1"/>
       <c r="Z148" s="1"/>
     </row>
-    <row r="149" ht="15.75" customHeight="1">
+    <row r="149" spans="1:26" ht="15.75" customHeight="1">
       <c r="A149" s="3"/>
       <c r="B149" s="3"/>
       <c r="C149" s="3"/>
@@ -4597,7 +4628,7 @@
       <c r="Y149" s="1"/>
       <c r="Z149" s="1"/>
     </row>
-    <row r="150" ht="15.75" customHeight="1">
+    <row r="150" spans="1:26" ht="15.75" customHeight="1">
       <c r="A150" s="3"/>
       <c r="B150" s="3"/>
       <c r="C150" s="3"/>
@@ -4624,7 +4655,7 @@
       <c r="Y150" s="1"/>
       <c r="Z150" s="1"/>
     </row>
-    <row r="151" ht="15.75" customHeight="1">
+    <row r="151" spans="1:26" ht="15.75" customHeight="1">
       <c r="A151" s="3"/>
       <c r="B151" s="3"/>
       <c r="C151" s="3"/>
@@ -4651,7 +4682,7 @@
       <c r="Y151" s="1"/>
       <c r="Z151" s="1"/>
     </row>
-    <row r="152" ht="15.75" customHeight="1">
+    <row r="152" spans="1:26" ht="15.75" customHeight="1">
       <c r="A152" s="3"/>
       <c r="B152" s="3"/>
       <c r="C152" s="3"/>
@@ -4678,7 +4709,7 @@
       <c r="Y152" s="1"/>
       <c r="Z152" s="1"/>
     </row>
-    <row r="153" ht="15.75" customHeight="1">
+    <row r="153" spans="1:26" ht="15.75" customHeight="1">
       <c r="A153" s="3"/>
       <c r="B153" s="3"/>
       <c r="C153" s="3"/>
@@ -4705,7 +4736,7 @@
       <c r="Y153" s="1"/>
       <c r="Z153" s="1"/>
     </row>
-    <row r="154" ht="15.75" customHeight="1">
+    <row r="154" spans="1:26" ht="15.75" customHeight="1">
       <c r="A154" s="3"/>
       <c r="B154" s="3"/>
       <c r="C154" s="3"/>
@@ -4732,7 +4763,7 @@
       <c r="Y154" s="1"/>
       <c r="Z154" s="1"/>
     </row>
-    <row r="155" ht="15.75" customHeight="1">
+    <row r="155" spans="1:26" ht="15.75" customHeight="1">
       <c r="A155" s="3"/>
       <c r="B155" s="3"/>
       <c r="C155" s="3"/>
@@ -4759,7 +4790,7 @@
       <c r="Y155" s="1"/>
       <c r="Z155" s="1"/>
     </row>
-    <row r="156" ht="15.75" customHeight="1">
+    <row r="156" spans="1:26" ht="15.75" customHeight="1">
       <c r="A156" s="3"/>
       <c r="B156" s="3"/>
       <c r="C156" s="3"/>
@@ -4786,7 +4817,7 @@
       <c r="Y156" s="1"/>
       <c r="Z156" s="1"/>
     </row>
-    <row r="157" ht="15.75" customHeight="1">
+    <row r="157" spans="1:26" ht="15.75" customHeight="1">
       <c r="A157" s="3"/>
       <c r="B157" s="3"/>
       <c r="C157" s="3"/>
@@ -4813,7 +4844,7 @@
       <c r="Y157" s="1"/>
       <c r="Z157" s="1"/>
     </row>
-    <row r="158" ht="15.75" customHeight="1">
+    <row r="158" spans="1:26" ht="15.75" customHeight="1">
       <c r="A158" s="3"/>
       <c r="B158" s="3"/>
       <c r="C158" s="3"/>
@@ -4840,7 +4871,7 @@
       <c r="Y158" s="1"/>
       <c r="Z158" s="1"/>
     </row>
-    <row r="159" ht="15.75" customHeight="1">
+    <row r="159" spans="1:26" ht="15.75" customHeight="1">
       <c r="A159" s="3"/>
       <c r="B159" s="3"/>
       <c r="C159" s="3"/>
@@ -4867,7 +4898,7 @@
       <c r="Y159" s="1"/>
       <c r="Z159" s="1"/>
     </row>
-    <row r="160" ht="15.75" customHeight="1">
+    <row r="160" spans="1:26" ht="15.75" customHeight="1">
       <c r="A160" s="3"/>
       <c r="B160" s="3"/>
       <c r="C160" s="3"/>
@@ -4894,7 +4925,7 @@
       <c r="Y160" s="1"/>
       <c r="Z160" s="1"/>
     </row>
-    <row r="161" ht="15.75" customHeight="1">
+    <row r="161" spans="1:26" ht="15.75" customHeight="1">
       <c r="A161" s="3"/>
       <c r="B161" s="3"/>
       <c r="C161" s="3"/>
@@ -4921,7 +4952,7 @@
       <c r="Y161" s="1"/>
       <c r="Z161" s="1"/>
     </row>
-    <row r="162" ht="15.75" customHeight="1">
+    <row r="162" spans="1:26" ht="15.75" customHeight="1">
       <c r="A162" s="3"/>
       <c r="B162" s="3"/>
       <c r="C162" s="3"/>
@@ -4948,7 +4979,7 @@
       <c r="Y162" s="1"/>
       <c r="Z162" s="1"/>
     </row>
-    <row r="163" ht="15.75" customHeight="1">
+    <row r="163" spans="1:26" ht="15.75" customHeight="1">
       <c r="A163" s="3"/>
       <c r="B163" s="3"/>
       <c r="C163" s="3"/>
@@ -4975,7 +5006,7 @@
       <c r="Y163" s="1"/>
       <c r="Z163" s="1"/>
     </row>
-    <row r="164" ht="15.75" customHeight="1">
+    <row r="164" spans="1:26" ht="15.75" customHeight="1">
       <c r="A164" s="3"/>
       <c r="B164" s="3"/>
       <c r="C164" s="3"/>
@@ -5002,7 +5033,7 @@
       <c r="Y164" s="1"/>
       <c r="Z164" s="1"/>
     </row>
-    <row r="165" ht="15.75" customHeight="1">
+    <row r="165" spans="1:26" ht="15.75" customHeight="1">
       <c r="A165" s="3"/>
       <c r="B165" s="3"/>
       <c r="C165" s="3"/>
@@ -5029,7 +5060,7 @@
       <c r="Y165" s="1"/>
       <c r="Z165" s="1"/>
     </row>
-    <row r="166" ht="15.75" customHeight="1">
+    <row r="166" spans="1:26" ht="15.75" customHeight="1">
       <c r="A166" s="3"/>
       <c r="B166" s="3"/>
       <c r="C166" s="3"/>
@@ -5056,7 +5087,7 @@
       <c r="Y166" s="1"/>
       <c r="Z166" s="1"/>
     </row>
-    <row r="167" ht="15.75" customHeight="1">
+    <row r="167" spans="1:26" ht="15.75" customHeight="1">
       <c r="A167" s="3"/>
       <c r="B167" s="3"/>
       <c r="C167" s="3"/>
@@ -5083,7 +5114,7 @@
       <c r="Y167" s="1"/>
       <c r="Z167" s="1"/>
     </row>
-    <row r="168" ht="15.75" customHeight="1">
+    <row r="168" spans="1:26" ht="15.75" customHeight="1">
       <c r="A168" s="3"/>
       <c r="B168" s="3"/>
       <c r="C168" s="3"/>
@@ -5110,7 +5141,7 @@
       <c r="Y168" s="1"/>
       <c r="Z168" s="1"/>
     </row>
-    <row r="169" ht="15.75" customHeight="1">
+    <row r="169" spans="1:26" ht="15.75" customHeight="1">
       <c r="A169" s="3"/>
       <c r="B169" s="3"/>
       <c r="C169" s="3"/>
@@ -5137,7 +5168,7 @@
       <c r="Y169" s="1"/>
       <c r="Z169" s="1"/>
     </row>
-    <row r="170" ht="15.75" customHeight="1">
+    <row r="170" spans="1:26" ht="15.75" customHeight="1">
       <c r="A170" s="3"/>
       <c r="B170" s="3"/>
       <c r="C170" s="3"/>
@@ -5164,7 +5195,7 @@
       <c r="Y170" s="1"/>
       <c r="Z170" s="1"/>
     </row>
-    <row r="171" ht="15.75" customHeight="1">
+    <row r="171" spans="1:26" ht="15.75" customHeight="1">
       <c r="A171" s="3"/>
       <c r="B171" s="3"/>
       <c r="C171" s="3"/>
@@ -5191,7 +5222,7 @@
       <c r="Y171" s="1"/>
       <c r="Z171" s="1"/>
     </row>
-    <row r="172" ht="15.75" customHeight="1">
+    <row r="172" spans="1:26" ht="15.75" customHeight="1">
       <c r="A172" s="3"/>
       <c r="B172" s="3"/>
       <c r="C172" s="3"/>
@@ -5218,7 +5249,7 @@
       <c r="Y172" s="1"/>
       <c r="Z172" s="1"/>
     </row>
-    <row r="173" ht="15.75" customHeight="1">
+    <row r="173" spans="1:26" ht="15.75" customHeight="1">
       <c r="A173" s="3"/>
       <c r="B173" s="3"/>
       <c r="C173" s="3"/>
@@ -5245,7 +5276,7 @@
       <c r="Y173" s="1"/>
       <c r="Z173" s="1"/>
     </row>
-    <row r="174" ht="15.75" customHeight="1">
+    <row r="174" spans="1:26" ht="15.75" customHeight="1">
       <c r="A174" s="3"/>
       <c r="B174" s="3"/>
       <c r="C174" s="3"/>
@@ -5272,7 +5303,7 @@
       <c r="Y174" s="1"/>
       <c r="Z174" s="1"/>
     </row>
-    <row r="175" ht="15.75" customHeight="1">
+    <row r="175" spans="1:26" ht="15.75" customHeight="1">
       <c r="A175" s="3"/>
       <c r="B175" s="3"/>
       <c r="C175" s="3"/>
@@ -5299,7 +5330,7 @@
       <c r="Y175" s="1"/>
       <c r="Z175" s="1"/>
     </row>
-    <row r="176" ht="15.75" customHeight="1">
+    <row r="176" spans="1:26" ht="15.75" customHeight="1">
       <c r="A176" s="3"/>
       <c r="B176" s="3"/>
       <c r="C176" s="3"/>
@@ -5326,7 +5357,7 @@
       <c r="Y176" s="1"/>
       <c r="Z176" s="1"/>
     </row>
-    <row r="177" ht="15.75" customHeight="1">
+    <row r="177" spans="1:26" ht="15.75" customHeight="1">
       <c r="A177" s="3"/>
       <c r="B177" s="3"/>
       <c r="C177" s="3"/>
@@ -5353,7 +5384,7 @@
       <c r="Y177" s="1"/>
       <c r="Z177" s="1"/>
     </row>
-    <row r="178" ht="15.75" customHeight="1">
+    <row r="178" spans="1:26" ht="15.75" customHeight="1">
       <c r="A178" s="3"/>
       <c r="B178" s="3"/>
       <c r="C178" s="3"/>
@@ -5380,7 +5411,7 @@
       <c r="Y178" s="1"/>
       <c r="Z178" s="1"/>
     </row>
-    <row r="179" ht="15.75" customHeight="1">
+    <row r="179" spans="1:26" ht="15.75" customHeight="1">
       <c r="A179" s="3"/>
       <c r="B179" s="3"/>
       <c r="C179" s="3"/>
@@ -5407,7 +5438,7 @@
       <c r="Y179" s="1"/>
       <c r="Z179" s="1"/>
     </row>
-    <row r="180" ht="15.75" customHeight="1">
+    <row r="180" spans="1:26" ht="15.75" customHeight="1">
       <c r="A180" s="3"/>
       <c r="B180" s="3"/>
       <c r="C180" s="3"/>
@@ -5434,7 +5465,7 @@
       <c r="Y180" s="1"/>
       <c r="Z180" s="1"/>
     </row>
-    <row r="181" ht="15.75" customHeight="1">
+    <row r="181" spans="1:26" ht="15.75" customHeight="1">
       <c r="A181" s="3"/>
       <c r="B181" s="3"/>
       <c r="C181" s="3"/>
@@ -5461,7 +5492,7 @@
       <c r="Y181" s="1"/>
       <c r="Z181" s="1"/>
     </row>
-    <row r="182" ht="15.75" customHeight="1">
+    <row r="182" spans="1:26" ht="15.75" customHeight="1">
       <c r="A182" s="3"/>
       <c r="B182" s="3"/>
       <c r="C182" s="3"/>
@@ -5488,7 +5519,7 @@
       <c r="Y182" s="1"/>
       <c r="Z182" s="1"/>
     </row>
-    <row r="183" ht="15.75" customHeight="1">
+    <row r="183" spans="1:26" ht="15.75" customHeight="1">
       <c r="A183" s="3"/>
       <c r="B183" s="3"/>
       <c r="C183" s="3"/>
@@ -5515,7 +5546,7 @@
       <c r="Y183" s="1"/>
       <c r="Z183" s="1"/>
     </row>
-    <row r="184" ht="15.75" customHeight="1">
+    <row r="184" spans="1:26" ht="15.75" customHeight="1">
       <c r="A184" s="3"/>
       <c r="B184" s="3"/>
       <c r="C184" s="3"/>
@@ -5542,7 +5573,7 @@
       <c r="Y184" s="1"/>
       <c r="Z184" s="1"/>
     </row>
-    <row r="185" ht="15.75" customHeight="1">
+    <row r="185" spans="1:26" ht="15.75" customHeight="1">
       <c r="A185" s="3"/>
       <c r="B185" s="3"/>
       <c r="C185" s="3"/>
@@ -5569,7 +5600,7 @@
       <c r="Y185" s="1"/>
       <c r="Z185" s="1"/>
     </row>
-    <row r="186" ht="15.75" customHeight="1">
+    <row r="186" spans="1:26" ht="15.75" customHeight="1">
       <c r="A186" s="3"/>
       <c r="B186" s="3"/>
       <c r="C186" s="3"/>
@@ -5596,7 +5627,7 @@
       <c r="Y186" s="1"/>
       <c r="Z186" s="1"/>
     </row>
-    <row r="187" ht="15.75" customHeight="1">
+    <row r="187" spans="1:26" ht="15.75" customHeight="1">
       <c r="A187" s="3"/>
       <c r="B187" s="3"/>
       <c r="C187" s="3"/>
@@ -5623,7 +5654,7 @@
       <c r="Y187" s="1"/>
       <c r="Z187" s="1"/>
     </row>
-    <row r="188" ht="15.75" customHeight="1">
+    <row r="188" spans="1:26" ht="15.75" customHeight="1">
       <c r="A188" s="3"/>
       <c r="B188" s="3"/>
       <c r="C188" s="3"/>
@@ -5650,7 +5681,7 @@
       <c r="Y188" s="1"/>
       <c r="Z188" s="1"/>
     </row>
-    <row r="189" ht="15.75" customHeight="1">
+    <row r="189" spans="1:26" ht="15.75" customHeight="1">
       <c r="A189" s="3"/>
       <c r="B189" s="3"/>
       <c r="C189" s="3"/>
@@ -5677,7 +5708,7 @@
       <c r="Y189" s="1"/>
       <c r="Z189" s="1"/>
     </row>
-    <row r="190" ht="15.75" customHeight="1">
+    <row r="190" spans="1:26" ht="15.75" customHeight="1">
       <c r="A190" s="3"/>
       <c r="B190" s="3"/>
       <c r="C190" s="3"/>
@@ -5704,7 +5735,7 @@
       <c r="Y190" s="1"/>
       <c r="Z190" s="1"/>
     </row>
-    <row r="191" ht="15.75" customHeight="1">
+    <row r="191" spans="1:26" ht="15.75" customHeight="1">
       <c r="A191" s="3"/>
       <c r="B191" s="3"/>
       <c r="C191" s="3"/>
@@ -5731,7 +5762,7 @@
       <c r="Y191" s="1"/>
       <c r="Z191" s="1"/>
     </row>
-    <row r="192" ht="15.75" customHeight="1">
+    <row r="192" spans="1:26" ht="15.75" customHeight="1">
       <c r="A192" s="3"/>
       <c r="B192" s="3"/>
       <c r="C192" s="3"/>
@@ -5758,7 +5789,7 @@
       <c r="Y192" s="1"/>
       <c r="Z192" s="1"/>
     </row>
-    <row r="193" ht="15.75" customHeight="1">
+    <row r="193" spans="1:26" ht="15.75" customHeight="1">
       <c r="A193" s="3"/>
       <c r="B193" s="3"/>
       <c r="C193" s="3"/>
@@ -5785,7 +5816,7 @@
       <c r="Y193" s="1"/>
       <c r="Z193" s="1"/>
     </row>
-    <row r="194" ht="15.75" customHeight="1">
+    <row r="194" spans="1:26" ht="15.75" customHeight="1">
       <c r="A194" s="3"/>
       <c r="B194" s="3"/>
       <c r="C194" s="3"/>
@@ -5812,7 +5843,7 @@
       <c r="Y194" s="1"/>
       <c r="Z194" s="1"/>
     </row>
-    <row r="195" ht="15.75" customHeight="1">
+    <row r="195" spans="1:26" ht="15.75" customHeight="1">
       <c r="A195" s="3"/>
       <c r="B195" s="3"/>
       <c r="C195" s="3"/>
@@ -5839,7 +5870,7 @@
       <c r="Y195" s="1"/>
       <c r="Z195" s="1"/>
     </row>
-    <row r="196" ht="15.75" customHeight="1">
+    <row r="196" spans="1:26" ht="15.75" customHeight="1">
       <c r="A196" s="3"/>
       <c r="B196" s="3"/>
       <c r="C196" s="3"/>
@@ -5866,7 +5897,7 @@
       <c r="Y196" s="1"/>
       <c r="Z196" s="1"/>
     </row>
-    <row r="197" ht="15.75" customHeight="1">
+    <row r="197" spans="1:26" ht="15.75" customHeight="1">
       <c r="A197" s="3"/>
       <c r="B197" s="3"/>
       <c r="C197" s="3"/>
@@ -5893,7 +5924,7 @@
       <c r="Y197" s="1"/>
       <c r="Z197" s="1"/>
     </row>
-    <row r="198" ht="15.75" customHeight="1">
+    <row r="198" spans="1:26" ht="15.75" customHeight="1">
       <c r="A198" s="3"/>
       <c r="B198" s="3"/>
       <c r="C198" s="3"/>
@@ -5920,7 +5951,7 @@
       <c r="Y198" s="1"/>
       <c r="Z198" s="1"/>
     </row>
-    <row r="199" ht="15.75" customHeight="1">
+    <row r="199" spans="1:26" ht="15.75" customHeight="1">
       <c r="A199" s="3"/>
       <c r="B199" s="3"/>
       <c r="C199" s="3"/>
@@ -5947,7 +5978,7 @@
       <c r="Y199" s="1"/>
       <c r="Z199" s="1"/>
     </row>
-    <row r="200" ht="15.75" customHeight="1">
+    <row r="200" spans="1:26" ht="15.75" customHeight="1">
       <c r="A200" s="3"/>
       <c r="B200" s="3"/>
       <c r="C200" s="3"/>
@@ -5974,7 +6005,7 @@
       <c r="Y200" s="1"/>
       <c r="Z200" s="1"/>
     </row>
-    <row r="201" ht="15.75" customHeight="1">
+    <row r="201" spans="1:26" ht="15.75" customHeight="1">
       <c r="A201" s="3"/>
       <c r="B201" s="3"/>
       <c r="C201" s="3"/>
@@ -6001,7 +6032,7 @@
       <c r="Y201" s="1"/>
       <c r="Z201" s="1"/>
     </row>
-    <row r="202" ht="15.75" customHeight="1">
+    <row r="202" spans="1:26" ht="15.75" customHeight="1">
       <c r="A202" s="3"/>
       <c r="B202" s="3"/>
       <c r="C202" s="3"/>
@@ -6028,7 +6059,7 @@
       <c r="Y202" s="1"/>
       <c r="Z202" s="1"/>
     </row>
-    <row r="203" ht="15.75" customHeight="1">
+    <row r="203" spans="1:26" ht="15.75" customHeight="1">
       <c r="A203" s="3"/>
       <c r="B203" s="3"/>
       <c r="C203" s="3"/>
@@ -6055,7 +6086,7 @@
       <c r="Y203" s="1"/>
       <c r="Z203" s="1"/>
     </row>
-    <row r="204" ht="15.75" customHeight="1">
+    <row r="204" spans="1:26" ht="15.75" customHeight="1">
       <c r="A204" s="3"/>
       <c r="B204" s="3"/>
       <c r="C204" s="3"/>
@@ -6082,7 +6113,7 @@
       <c r="Y204" s="1"/>
       <c r="Z204" s="1"/>
     </row>
-    <row r="205" ht="15.75" customHeight="1">
+    <row r="205" spans="1:26" ht="15.75" customHeight="1">
       <c r="A205" s="3"/>
       <c r="B205" s="3"/>
       <c r="C205" s="3"/>
@@ -6109,7 +6140,7 @@
       <c r="Y205" s="1"/>
       <c r="Z205" s="1"/>
     </row>
-    <row r="206" ht="15.75" customHeight="1">
+    <row r="206" spans="1:26" ht="15.75" customHeight="1">
       <c r="A206" s="3"/>
       <c r="B206" s="3"/>
       <c r="C206" s="3"/>
@@ -6136,7 +6167,7 @@
       <c r="Y206" s="1"/>
       <c r="Z206" s="1"/>
     </row>
-    <row r="207" ht="15.75" customHeight="1">
+    <row r="207" spans="1:26" ht="15.75" customHeight="1">
       <c r="A207" s="3"/>
       <c r="B207" s="3"/>
       <c r="C207" s="3"/>
@@ -6163,7 +6194,7 @@
       <c r="Y207" s="1"/>
       <c r="Z207" s="1"/>
     </row>
-    <row r="208" ht="15.75" customHeight="1">
+    <row r="208" spans="1:26" ht="15.75" customHeight="1">
       <c r="A208" s="3"/>
       <c r="B208" s="3"/>
       <c r="C208" s="3"/>
@@ -6190,7 +6221,7 @@
       <c r="Y208" s="1"/>
       <c r="Z208" s="1"/>
     </row>
-    <row r="209" ht="15.75" customHeight="1">
+    <row r="209" spans="1:26" ht="15.75" customHeight="1">
       <c r="A209" s="3"/>
       <c r="B209" s="3"/>
       <c r="C209" s="3"/>
@@ -6217,7 +6248,7 @@
       <c r="Y209" s="1"/>
       <c r="Z209" s="1"/>
     </row>
-    <row r="210" ht="15.75" customHeight="1">
+    <row r="210" spans="1:26" ht="15.75" customHeight="1">
       <c r="A210" s="3"/>
       <c r="B210" s="3"/>
       <c r="C210" s="3"/>
@@ -6244,7 +6275,7 @@
       <c r="Y210" s="1"/>
       <c r="Z210" s="1"/>
     </row>
-    <row r="211" ht="15.75" customHeight="1">
+    <row r="211" spans="1:26" ht="15.75" customHeight="1">
       <c r="A211" s="3"/>
       <c r="B211" s="3"/>
       <c r="C211" s="3"/>
@@ -6271,7 +6302,7 @@
       <c r="Y211" s="1"/>
       <c r="Z211" s="1"/>
     </row>
-    <row r="212" ht="15.75" customHeight="1">
+    <row r="212" spans="1:26" ht="15.75" customHeight="1">
       <c r="A212" s="3"/>
       <c r="B212" s="3"/>
       <c r="C212" s="3"/>
@@ -6298,7 +6329,7 @@
       <c r="Y212" s="1"/>
       <c r="Z212" s="1"/>
     </row>
-    <row r="213" ht="15.75" customHeight="1">
+    <row r="213" spans="1:26" ht="15.75" customHeight="1">
       <c r="A213" s="3"/>
       <c r="B213" s="3"/>
       <c r="C213" s="3"/>
@@ -6325,7 +6356,7 @@
       <c r="Y213" s="1"/>
       <c r="Z213" s="1"/>
     </row>
-    <row r="214" ht="15.75" customHeight="1">
+    <row r="214" spans="1:26" ht="15.75" customHeight="1">
       <c r="A214" s="3"/>
       <c r="B214" s="3"/>
       <c r="C214" s="3"/>
@@ -6352,7 +6383,7 @@
       <c r="Y214" s="1"/>
       <c r="Z214" s="1"/>
     </row>
-    <row r="215" ht="15.75" customHeight="1">
+    <row r="215" spans="1:26" ht="15.75" customHeight="1">
       <c r="A215" s="3"/>
       <c r="B215" s="3"/>
       <c r="C215" s="3"/>
@@ -6379,7 +6410,7 @@
       <c r="Y215" s="1"/>
       <c r="Z215" s="1"/>
     </row>
-    <row r="216" ht="15.75" customHeight="1">
+    <row r="216" spans="1:26" ht="15.75" customHeight="1">
       <c r="A216" s="3"/>
       <c r="B216" s="3"/>
       <c r="C216" s="3"/>
@@ -6406,7 +6437,7 @@
       <c r="Y216" s="1"/>
       <c r="Z216" s="1"/>
     </row>
-    <row r="217" ht="15.75" customHeight="1">
+    <row r="217" spans="1:26" ht="15.75" customHeight="1">
       <c r="A217" s="3"/>
       <c r="B217" s="3"/>
       <c r="C217" s="3"/>
@@ -6433,7 +6464,7 @@
       <c r="Y217" s="1"/>
       <c r="Z217" s="1"/>
     </row>
-    <row r="218" ht="15.75" customHeight="1">
+    <row r="218" spans="1:26" ht="15.75" customHeight="1">
       <c r="A218" s="3"/>
       <c r="B218" s="3"/>
       <c r="C218" s="3"/>
@@ -6460,7 +6491,7 @@
       <c r="Y218" s="1"/>
       <c r="Z218" s="1"/>
     </row>
-    <row r="219" ht="15.75" customHeight="1">
+    <row r="219" spans="1:26" ht="15.75" customHeight="1">
       <c r="A219" s="3"/>
       <c r="B219" s="3"/>
       <c r="C219" s="3"/>
@@ -6487,7 +6518,7 @@
       <c r="Y219" s="1"/>
       <c r="Z219" s="1"/>
     </row>
-    <row r="220" ht="15.75" customHeight="1">
+    <row r="220" spans="1:26" ht="15.75" customHeight="1">
       <c r="A220" s="3"/>
       <c r="B220" s="3"/>
       <c r="C220" s="3"/>
@@ -6514,10 +6545,10 @@
       <c r="Y220" s="1"/>
       <c r="Z220" s="1"/>
     </row>
-    <row r="221" ht="15.75" customHeight="1"/>
-    <row r="222" ht="15.75" customHeight="1"/>
-    <row r="223" ht="15.75" customHeight="1"/>
-    <row r="224" ht="15.75" customHeight="1"/>
+    <row r="221" spans="1:26" ht="15.75" customHeight="1"/>
+    <row r="222" spans="1:26" ht="15.75" customHeight="1"/>
+    <row r="223" spans="1:26" ht="15.75" customHeight="1"/>
+    <row r="224" spans="1:26" ht="15.75" customHeight="1"/>
     <row r="225" ht="15.75" customHeight="1"/>
     <row r="226" ht="15.75" customHeight="1"/>
     <row r="227" ht="15.75" customHeight="1"/>
@@ -7295,12 +7326,11 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <drawing r:id="rId1"/>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>